--- a/timetracking.xlsx
+++ b/timetracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henrik Kurkela\Google Drive\Ammattikorkeakoulu Kurssimateriaalit\Developer Basic Skills\HTML CSS Programming\DevBasicSkills2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3BB434-E4AD-43CA-8A88-A0018D8C9BDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE8FC85-4DAF-456C-955F-EE5113130162}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -40,6 +40,15 @@
   </si>
   <si>
     <t>Layout design, Base converter and Base tables</t>
+  </si>
+  <si>
+    <t>Layout design, Random Number Generator</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Kurkela</t>
   </si>
 </sst>
 </file>
@@ -364,19 +373,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.5703125" customWidth="1"/>
     <col min="3" max="3" width="52.42578125" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -386,8 +396,11 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43801</v>
       </c>
@@ -397,8 +410,11 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43802</v>
       </c>
@@ -408,68 +424,80 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43803</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43804</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43805</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43806</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43807</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43808</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43809</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43810</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43811</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43812</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43813</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43814</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43815</v>
       </c>
